--- a/data/9月.xlsx
+++ b/data/9月.xlsx
@@ -83,7 +83,7 @@
     <t>2023烹饪高考英才1班</t>
   </si>
   <si>
-    <t>23酒店烹饪升学班（合班）西餐操作室</t>
+    <t>23酒店烹饪升学班（合班）</t>
   </si>
   <si>
     <t xml:space="preserve"> 2023计应平面升学班（合班）</t>
@@ -143,7 +143,7 @@
     <t>2024中餐3班(英才)</t>
   </si>
   <si>
-    <t>2024中餐4班(金龙鱼)</t>
+    <t>2024中餐4班</t>
   </si>
   <si>
     <t>2024中餐5班(实验)</t>
@@ -203,7 +203,7 @@
     <t>2025中餐2班（高职）</t>
   </si>
   <si>
-    <t>2025中餐3班（金龙鱼）</t>
+    <t>2025中餐3班</t>
   </si>
   <si>
     <t>2025中餐4班（实验）</t>
@@ -1271,7 +1271,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1292,7 +1292,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="49" fontId="6" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1310,7 +1310,7 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1328,7 +1328,7 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1871,13 +1871,13 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="C1" sqref="C$1:C$1048576"/>
+      <selection pane="bottomLeft" activeCell="B2" sqref="B2:B65"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14" defaultRowHeight="18" customHeight="1"/>
   <cols>
     <col min="1" max="1" width="8.62962962962963" style="3" customWidth="1"/>
-    <col min="2" max="2" width="8.11111111111111" style="3" customWidth="1"/>
+    <col min="2" max="2" width="53.7777777777778" style="3" customWidth="1"/>
     <col min="3" max="3" width="10.25" style="3" customWidth="1"/>
     <col min="4" max="4" width="10.5277777777778" style="3" customWidth="1"/>
     <col min="5" max="6" width="14" style="3"/>
@@ -4279,16 +4279,16 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="66"/>
-    <row r="67"/>
-    <row r="68"/>
-    <row r="69"/>
-    <row r="70"/>
-    <row r="71"/>
-    <row r="72"/>
-    <row r="73"/>
-    <row r="74"/>
-    <row r="90" spans="2:2">
+    <row r="66" ht="13.2"/>
+    <row r="67" ht="13.2"/>
+    <row r="68" ht="13.2"/>
+    <row r="69" ht="13.2"/>
+    <row r="70" ht="13.2"/>
+    <row r="71" ht="13.2"/>
+    <row r="72" ht="13.2"/>
+    <row r="73" ht="13.2"/>
+    <row r="74" ht="13.2"/>
+    <row r="90" ht="13.2" spans="2:2">
       <c r="B90" s="59"/>
     </row>
   </sheetData>
